--- a/inst/dados_premissas/2022/tabela_dist_subs.xlsx
+++ b/inst/dados_premissas/2022/tabela_dist_subs.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Geracao Distribuida\PDE\PDE2032\dados_premissas\2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Arquivos Locais\projetos\epe4md-git3\inst\dados_premissas\2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67C3C88-A8C5-4918-B6CB-344C3F2B454D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6855"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -47,9 +48,6 @@
     <t>CELESC</t>
   </si>
   <si>
-    <t>ENEL GO</t>
-  </si>
-  <si>
     <t>EQUATORIAL PA</t>
   </si>
   <si>
@@ -300,12 +298,15 @@
   </si>
   <si>
     <t>EQUATORIAL MA</t>
+  </si>
+  <si>
+    <t>EQUATORIAL GO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
@@ -340,9 +341,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -623,30 +623,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
       <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="10" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" t="s">
         <v>80</v>
-      </c>
-      <c r="D1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -654,759 +654,759 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>53</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" t="s">
         <v>82</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
         <v>57</v>
       </c>
-      <c r="C6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
         <v>58</v>
       </c>
-      <c r="C7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>59</v>
-      </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>6</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>60</v>
       </c>
-      <c r="C9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>61</v>
-      </c>
       <c r="C10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>10</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>65</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>86</v>
       </c>
-      <c r="D14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="D15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B15" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" t="s">
-        <v>87</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="B16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>15</v>
       </c>
-      <c r="B19" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" t="s">
-        <v>85</v>
-      </c>
-      <c r="D19" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="B20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" t="s">
-        <v>85</v>
-      </c>
-      <c r="D20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B25" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D25" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+      <c r="B26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B26" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" t="s">
-        <v>77</v>
-      </c>
-      <c r="D26" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+      <c r="B27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>70</v>
       </c>
-      <c r="C27" t="s">
-        <v>86</v>
-      </c>
-      <c r="D27" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>71</v>
-      </c>
       <c r="C28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B29" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" t="s">
-        <v>85</v>
-      </c>
-      <c r="D29" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
+      <c r="B30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B30" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" t="s">
-        <v>85</v>
-      </c>
-      <c r="D30" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="B31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B32" t="s">
-        <v>72</v>
-      </c>
-      <c r="C32" t="s">
-        <v>87</v>
-      </c>
-      <c r="D32" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
+      <c r="B33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>29</v>
       </c>
-      <c r="B33" t="s">
-        <v>58</v>
-      </c>
-      <c r="C33" t="s">
-        <v>85</v>
-      </c>
-      <c r="D33" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+      <c r="B34" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B34" t="s">
-        <v>54</v>
-      </c>
-      <c r="C34" t="s">
-        <v>77</v>
-      </c>
-      <c r="D34" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="B35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B36" t="s">
-        <v>64</v>
-      </c>
-      <c r="C36" t="s">
-        <v>77</v>
-      </c>
-      <c r="D36" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="B37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>74</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C39" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" t="s">
+        <v>76</v>
+      </c>
+      <c r="D40" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" t="s">
+        <v>85</v>
+      </c>
+      <c r="D42" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" t="s">
+        <v>76</v>
+      </c>
+      <c r="D43" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44" t="s">
         <v>77</v>
       </c>
-      <c r="D38" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B39" t="s">
-        <v>75</v>
-      </c>
-      <c r="C39" t="s">
-        <v>86</v>
-      </c>
-      <c r="D39" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B40" t="s">
-        <v>76</v>
-      </c>
-      <c r="C40" t="s">
-        <v>77</v>
-      </c>
-      <c r="D40" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B41" t="s">
-        <v>70</v>
-      </c>
-      <c r="C41" t="s">
-        <v>86</v>
-      </c>
-      <c r="D41" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B42" t="s">
-        <v>77</v>
-      </c>
-      <c r="C42" t="s">
-        <v>86</v>
-      </c>
-      <c r="D42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B43" t="s">
-        <v>54</v>
-      </c>
-      <c r="C43" t="s">
-        <v>77</v>
-      </c>
-      <c r="D43" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B44" t="s">
-        <v>78</v>
-      </c>
       <c r="C44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" t="s">
+        <v>84</v>
+      </c>
+      <c r="D45" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>41</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B46" t="s">
         <v>58</v>
       </c>
-      <c r="C45" t="s">
-        <v>85</v>
-      </c>
-      <c r="D45" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
+      <c r="C46" t="s">
+        <v>84</v>
+      </c>
+      <c r="D46" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B46" t="s">
-        <v>59</v>
-      </c>
-      <c r="C46" t="s">
-        <v>85</v>
-      </c>
-      <c r="D46" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
+      <c r="B47" t="s">
+        <v>75</v>
+      </c>
+      <c r="C47" t="s">
+        <v>76</v>
+      </c>
+      <c r="D47" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B47" t="s">
-        <v>76</v>
-      </c>
-      <c r="C47" t="s">
-        <v>77</v>
-      </c>
-      <c r="D47" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
+      <c r="B48" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" t="s">
+        <v>84</v>
+      </c>
+      <c r="D48" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B48" t="s">
-        <v>58</v>
-      </c>
-      <c r="C48" t="s">
-        <v>85</v>
-      </c>
-      <c r="D48" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="B49" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C49" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D49" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>45</v>
+      </c>
+      <c r="B50" t="s">
+        <v>76</v>
+      </c>
+      <c r="C50" t="s">
+        <v>85</v>
+      </c>
+      <c r="D50" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B50" t="s">
-        <v>77</v>
-      </c>
-      <c r="C50" t="s">
-        <v>86</v>
-      </c>
-      <c r="D50" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="B51" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C51" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D51" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C52" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B53" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C53" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D53" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>49</v>
+      </c>
+      <c r="B54" t="s">
+        <v>66</v>
+      </c>
+      <c r="C54" t="s">
+        <v>84</v>
+      </c>
+      <c r="D54" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>50</v>
       </c>
-      <c r="B54" t="s">
-        <v>67</v>
-      </c>
-      <c r="C54" t="s">
-        <v>85</v>
-      </c>
-      <c r="D54" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="B55" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C55" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D55" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D55"/>
+  <autoFilter ref="A1:D55" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>